--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alireza\تز ارشد\فایل‌های پایان‌نامه\پیاده سازی\stance detection using wikipedia augmented data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7F6BF-D556-44AC-8793-4DB65424BC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9593FB3-63C3-4690-863A-F63D0819B099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>F1</t>
   </si>
@@ -53,18 +56,283 @@
   <si>
     <t>vast</t>
   </si>
+  <si>
+    <t>semeval</t>
+  </si>
+  <si>
+    <t>60% entity in text</t>
+  </si>
+  <si>
+    <t>1 entity in text</t>
+  </si>
+  <si>
+    <t>2 entity in text</t>
+  </si>
+  <si>
+    <t>3 entity in text</t>
+  </si>
+  <si>
+    <t>4 entity in text</t>
+  </si>
+  <si>
+    <t>5 entity in text</t>
+  </si>
+  <si>
+    <t>6 entity in text</t>
+  </si>
+  <si>
+    <t>pstance</t>
+  </si>
+  <si>
+    <t>VAST</t>
+  </si>
+  <si>
+    <t>SEMEVAL</t>
+  </si>
+  <si>
+    <t>PSTANCE</t>
+  </si>
+  <si>
+    <t>twitter stance election</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Base F1</t>
+  </si>
+  <si>
+    <t>Model F1</t>
+  </si>
+  <si>
+    <t>ΔF1</t>
+  </si>
+  <si>
+    <t>TWITTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semeval </t>
+  </si>
+  <si>
+    <t>Base Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA++ Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA++ knowledged Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA++ knowledged Base Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA knowledged Fscore</t>
+  </si>
+  <si>
+    <t>KASrA knowledged Accuracy</t>
+  </si>
+  <si>
+    <t>KASrA knowledged Base Fscore</t>
+  </si>
+  <si>
+    <t>KASrA knowledged Base Accuracy</t>
+  </si>
+  <si>
+    <t>F1 وزنی KASrA</t>
+  </si>
+  <si>
+    <t>F1 وزنی مدل پایه</t>
+  </si>
+  <si>
+    <t>F1 وزنی KASrA++</t>
+  </si>
+  <si>
+    <t>KASrA++ تعداد موارد غنی شده در</t>
+  </si>
+  <si>
+    <t>تعداد کل موارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASrAتعداد موارد غنی شده در </t>
+  </si>
+  <si>
+    <t>F1 وزنی مقادیر غنی شده در با شرایط KASrA++ در مدل‌های پایه</t>
+  </si>
+  <si>
+    <t>F1 وزنی مقادیر غنی شده در روش KASrA++</t>
+  </si>
+  <si>
+    <t>F1 وزنی</t>
+  </si>
+  <si>
+    <t>فراخوانی</t>
+  </si>
+  <si>
+    <t>صحت</t>
+  </si>
+  <si>
+    <t>دقت</t>
+  </si>
+  <si>
+    <t>gemini-2.0-flash</t>
+  </si>
+  <si>
+    <t>llama-3.3-70b</t>
+  </si>
+  <si>
+    <t>deepSeek-V3-0324</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>گروه نمونه‌ها</t>
+  </si>
+  <si>
+    <t>تعداد بهبودیافته</t>
+  </si>
+  <si>
+    <t>تعداد تضعیف‌شده</t>
+  </si>
+  <si>
+    <t>نسبت بهبود به تضعیف</t>
+  </si>
+  <si>
+    <t>DeepSeek-V3</t>
+  </si>
+  <si>
+    <t>با دانش (۴۳۸)</t>
+  </si>
+  <si>
+    <t>۳.۷ به ۱</t>
+  </si>
+  <si>
+    <t>بدون دانش (۸۱۱)</t>
+  </si>
+  <si>
+    <t>۱.۷ به ۱</t>
+  </si>
+  <si>
+    <t>LLaMA-3.3-70b</t>
+  </si>
+  <si>
+    <t>۱.۶ به ۱</t>
+  </si>
+  <si>
+    <t>GPT-4o-mini</t>
+  </si>
+  <si>
+    <t>۲.۹ به ۱</t>
+  </si>
+  <si>
+    <t>۱.۹ به ۱</t>
+  </si>
+  <si>
+    <t>مدل</t>
+  </si>
+  <si>
+    <t>تعداد کل نمونه</t>
+  </si>
+  <si>
+    <t>بهبودیافته</t>
+  </si>
+  <si>
+    <t>تضعیف‌شده</t>
+  </si>
+  <si>
+    <t>با دانش</t>
+  </si>
+  <si>
+    <t>3.7 به 1</t>
+  </si>
+  <si>
+    <t>بدون دانش</t>
+  </si>
+  <si>
+    <t>1.7 به 1</t>
+  </si>
+  <si>
+    <t>1.2 به 1</t>
+  </si>
+  <si>
+    <t>3.1 به 1</t>
+  </si>
+  <si>
+    <t>1.9 به 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,11 +351,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -98,11 +422,243 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="106">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -224,43 +780,6321 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>base</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and model F result diff</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>VAST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TWITTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PSTANCE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMEVAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D341-4CE5-8A8E-2F8BBD37D765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>VAST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TWITTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PSTANCE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMEVAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D341-4CE5-8A8E-2F8BBD37D765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="265400591"/>
+        <c:axId val="265387151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="265400591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265387151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="265387151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265400591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ΔF1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>VAST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TWITTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PSTANCE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMEVAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-561C-4F14-8F4C-12501EF76013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="458032063"/>
+        <c:axId val="458035903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458032063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458035903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458035903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458032063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Std Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>VAST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TWITTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PSTANCE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMEVAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>259.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBA8-4C94-A7AA-AB9B0386216E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666987711"/>
+        <c:axId val="666980991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666987711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666980991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666980991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666987711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>VAST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TWITTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PSTANCE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEMEVAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>590.14099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.31399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D90-4AFB-92DC-CD3B345D4FB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666986271"/>
+        <c:axId val="666986751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666986271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666986751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666986751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666986271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>دقت</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CE1-44C2-8AC6-40526993FB04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>صحت</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CE1-44C2-8AC6-40526993FB04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>فراخوانی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CE1-44C2-8AC6-40526993FB04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 وزنی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4CE1-44C2-8AC6-40526993FB04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1958254144"/>
+        <c:axId val="1958250784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1958254144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958250784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1958250784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1958254144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>دقت</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48A9-40BC-983E-0D4C3585524B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 وزنی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepSeek-V3-0324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>llama-3.3-70b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48A9-40BC-983E-0D4C3585524B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1596681151"/>
+        <c:axId val="1596678271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1596681151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596678271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596678271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1596681151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6890BB1B-853E-A4F4-60EA-CB6C1265EF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D5CAC0-4089-2CEA-FF3F-2C6B1988476D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC932DC5-8CF9-3778-E38B-4B5B3A71B853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC8D544-EFC8-E2B9-6B3F-7C2679467078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4619625" cy="1028700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D17AAA-3F25-798C-6460-56033F554279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048874" y="1800225"/>
+          <a:ext cx="4619625" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fa-IR" sz="1800" b="1">
+              <a:latin typeface="Vazir" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Vazir" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>نتیجه</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fa-IR" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Vazir" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Vazir" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t> اینکه هرچقدر متن ها کوتاه تر و یکنواخت تر. عملکرد مدل بهتر</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:latin typeface="Vazir" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Vazir" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF1DA23-41C0-4304-AF42-D1909F6C83B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1164739F-001D-1A11-6E04-703C3EAEDADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5F0907-261E-40E1-9AD2-8ED806D95E81}" name="Table1" displayName="Table1" ref="B2:I10" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5F0907-261E-40E1-9AD2-8ED806D95E81}" name="Table1" displayName="Table1" ref="B2:I10" totalsRowCount="1" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="B2:I9" xr:uid="{CA5F0907-261E-40E1-9AD2-8ED806D95E81}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A58605F4-105E-42A3-8F8D-F9042E246FC1}" name="Column1" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{92E3AE88-B3B0-4BB6-8356-ABF7414AE511}" name="F1" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{C303914A-1E95-4B84-A31E-BDA9D5040C33}" name="ACC" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{65F8ADB8-5D2D-418A-95C9-3A5DF34E2813}" name="F1 K" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{A58605F4-105E-42A3-8F8D-F9042E246FC1}" name="Column1" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{92E3AE88-B3B0-4BB6-8356-ABF7414AE511}" name="F1" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{C303914A-1E95-4B84-A31E-BDA9D5040C33}" name="ACC" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{65F8ADB8-5D2D-418A-95C9-3A5DF34E2813}" name="F1 K" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>AVERAGE(E4:E9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6F10D8C0-7800-4913-8BF9-6357B3F533F8}" name="ACC K" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{D7D9BC83-FB70-4382-BF0A-8AD2DEC53A40}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" xr3:uid="{6F10D8C0-7800-4913-8BF9-6357B3F533F8}" name="ACC K" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{D7D9BC83-FB70-4382-BF0A-8AD2DEC53A40}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>AVERAGE(G4:G9)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0D854AE8-7E00-424D-AFA9-95B6E3EE4B56}" name="ACC K BASE" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{E7424725-EA12-4A44-8C28-F561EA83BE8C}" name=" items count" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{0D854AE8-7E00-424D-AFA9-95B6E3EE4B56}" name="ACC K BASE" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{E7424725-EA12-4A44-8C28-F561EA83BE8C}" name=" items count" dataDxfId="89" totalsRowDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98DC8155-DEC1-4AD8-984E-747455E59F03}" name="Table13" displayName="Table13" ref="B13:I18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B13:I17" xr:uid="{98DC8155-DEC1-4AD8-984E-747455E59F03}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98DC8155-DEC1-4AD8-984E-747455E59F03}" name="Table13" displayName="Table13" ref="B12:I18" totalsRowCount="1" headerRowDxfId="87" dataDxfId="86">
+  <autoFilter ref="B12:I17" xr:uid="{98DC8155-DEC1-4AD8-984E-747455E59F03}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7303FAE5-A218-4EF6-8726-F446713FDAD9}" name="Column1" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6D9108B0-962E-4DC2-90AA-FDC4C7D60FDD}" name="F1" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C42ED976-606A-427F-A1FB-CF4C639E5060}" name="ACC" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0BCB7B09-015C-4818-800B-D51A2AD12727}" name="F1 K" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{7303FAE5-A218-4EF6-8726-F446713FDAD9}" name="Column1" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{6D9108B0-962E-4DC2-90AA-FDC4C7D60FDD}" name="F1" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{C42ED976-606A-427F-A1FB-CF4C639E5060}" name="ACC" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{0BCB7B09-015C-4818-800B-D51A2AD12727}" name="F1 K" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>AVERAGE(E15:E17)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0AF96306-B76A-41DB-8D42-3D9DB019D3E6}" name="ACC K" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{AB89EE3E-20E9-45AF-8C82-14E8B345929D}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{0AF96306-B76A-41DB-8D42-3D9DB019D3E6}" name="ACC K" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{AB89EE3E-20E9-45AF-8C82-14E8B345929D}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <totalsRowFormula>AVERAGE(G15:G17)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{77D2FC60-1A42-4B7E-9126-359F9DC186FC}" name="ACC K BASE" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{85F4929D-F325-4E5A-B05A-2C011D473621}" name=" items count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{77D2FC60-1A42-4B7E-9126-359F9DC186FC}" name="ACC K BASE" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{85F4929D-F325-4E5A-B05A-2C011D473621}" name=" items count" dataDxfId="71" totalsRowDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A36C468F-F34A-489C-BB1F-33222337C3C5}" name="Table134" displayName="Table134" ref="B20:I24" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="B20:I23" xr:uid="{A36C468F-F34A-489C-BB1F-33222337C3C5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E87E4248-A3B0-4E62-9537-8B1E1F86AEE4}" name="Column1" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{CE237C69-E623-4F59-9E6D-7A5B38D994FD}" name="F1" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{E10653B0-F005-4642-9E8E-2C12EE7FA3AB}" name="ACC" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{B8804667-A16E-4329-BB13-7D06C1B96671}" name="F1 K" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
+      <totalsRowFormula>AVERAGE(E22:E23)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F2CA7C1F-A281-4497-909D-D8912E806A94}" name="ACC K" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{C1FF87D7-0194-42AB-BAD8-1FFA705C5583}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+      <totalsRowFormula>AVERAGE(G22:G23)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1FCA5604-F8D2-4FAA-B1C9-14EEEBDF659D}" name="ACC K BASE" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{2855B89B-F714-45FC-AE2C-BB8603B772FB}" name=" items count" dataDxfId="53" totalsRowDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0F577398-B584-4C31-8284-12C481E49835}" name="Table1345" displayName="Table1345" ref="B26:I30" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="B26:I29" xr:uid="{0F577398-B584-4C31-8284-12C481E49835}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{523D3735-BA70-4C96-A94E-E20BA60DF98F}" name="Column1" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{D47E3AF3-98BF-4598-AB90-7134C5CF4D79}" name="F1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{E718E176-3B80-4071-839B-692EE2B7173D}" name="ACC" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{662A9E84-596F-4CE8-A840-920605298E9B}" name="F1 K" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+      <totalsRowFormula>AVERAGE(E28:E28)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{76D29C04-D4BE-4EEE-B6DC-CF15FC7918F4}" name="ACC K" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{99D99D7A-7D6C-4C3F-8722-528184D96500}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+      <totalsRowFormula>AVERAGE(G28:G28)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5869A386-9D35-49AA-B0CD-EDC593428BCC}" name="ACC K BASE" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{5B0F413A-41CC-40B6-868A-763AE46F479C}" name=" items count" dataDxfId="35" totalsRowDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C83DE4AD-DA60-4B4A-B7D8-338BC179E281}" name="Table13456" displayName="Table13456" ref="B33:I37" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B33:I36" xr:uid="{C83DE4AD-DA60-4B4A-B7D8-338BC179E281}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AA9B66C5-0BAC-4FB6-94E7-E40296A7F171}" name="Column1" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{C24391E6-3D59-4ACD-8920-E3F58E848739}" name="F1" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{D4FA60E2-BDF6-4B70-BCC4-115EE81FB61B}" name="ACC" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{6C750E97-0940-4743-B0D4-23A4C02FF261}" name="F1 K" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+      <totalsRowFormula>AVERAGE(E35:E35)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A9DB086A-CF2B-4949-9D06-DACD2446F15A}" name="ACC K" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{905C09BE-7B1F-4C55-B19A-F1CB7E2CEA2B}" name="F1 K BASE" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+      <totalsRowFormula>AVERAGE(G35:G35)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D80A07C9-C83E-4280-9694-9F94CF2F3846}" name="ACC K BASE" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{B983CC79-8111-4D3C-B1D7-B9D4D41F914D}" name=" items count" dataDxfId="17" totalsRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA9C66F3-BE42-4D20-A13E-29A954FF0C31}" name="Table6" displayName="Table6" ref="A1:N5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N5" xr:uid="{AA9C66F3-BE42-4D20-A13E-29A954FF0C31}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{80138D5E-CEDE-4BF8-BAD1-32ECE3A8F27C}" name="Dataset" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0AEE293E-9F95-47B2-97EB-76FFDA552910}" name="Count" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B61B46E7-3AF6-4A76-AFCB-9C4EEBBEF251}" name="Mean" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CEDC8888-F9CA-4DDD-BAF5-DDCB73E799B3}" name="Std Dev" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D6FF181D-59A2-44EE-A94E-287D99F20FB8}" name="Variance" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3D6E08CC-8E2F-4157-884A-6A757B7D4E53}" name="Min" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{AFAEE35E-D1E7-4CE3-A430-CE33B6180D70}" name="Q1" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{198C3DE3-373F-4D29-9008-CCB748519C21}" name="Median" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E66B197F-B5E7-4B31-9106-768C253DC454}" name="Q3" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A9EDC148-6650-4C2F-B95C-9AE4B8AA2E1F}" name="Max" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{2DADF205-BA02-4486-9541-B553AF581140}" name="Range" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{569B873E-1426-491E-A7E1-293F9A483049}" name="Base F1" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{684762B0-6511-46F4-B301-EF0D5442ED5A}" name="Model F1" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{F6F7D817-5D11-4041-A17C-A90F74430A82}" name="ΔF1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,10 +7363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,15 +7378,19 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="9" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -577,8 +7415,9 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -593,12 +7432,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2">
-        <v>2930</v>
-      </c>
+        <v>2907</v>
+      </c>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>67.45</v>
@@ -621,10 +7461,11 @@
       <c r="I4" s="1">
         <v>1556</v>
       </c>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>67.67</v>
@@ -647,10 +7488,22 @@
       <c r="I5" s="1">
         <v>678</v>
       </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>67.47</v>
@@ -673,10 +7526,25 @@
       <c r="I6" s="1">
         <v>204</v>
       </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1661</v>
+      </c>
+      <c r="M6">
+        <v>437</v>
+      </c>
+      <c r="N6">
+        <v>1668</v>
+      </c>
+      <c r="O6">
+        <v>590</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>4</v>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>67.08</v>
@@ -699,10 +7567,25 @@
       <c r="I7" s="1">
         <v>64</v>
       </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4">
+        <v>864</v>
+      </c>
+      <c r="M7">
+        <v>86</v>
+      </c>
+      <c r="N7">
+        <v>622</v>
+      </c>
+      <c r="O7">
+        <v>158</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>5</v>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>67.31</v>
@@ -725,10 +7608,25 @@
       <c r="I8" s="1">
         <v>10</v>
       </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2930</v>
+      </c>
+      <c r="M8">
+        <v>1249</v>
+      </c>
+      <c r="N8">
+        <v>2157</v>
+      </c>
+      <c r="O8">
+        <v>750</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>6</v>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>67.5</v>
@@ -751,8 +7649,9 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -767,59 +7666,115 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="L10" s="4"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="4"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L12" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>0</v>
       </c>
+      <c r="C13" s="1">
+        <v>67.53</v>
+      </c>
+      <c r="D13" s="1">
+        <v>67.97</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2">
+        <v>2930</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="1">
+        <v>66.91</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>64.28</v>
+      </c>
+      <c r="F14" s="1">
+        <v>64.42</v>
+      </c>
+      <c r="G14" s="1">
+        <v>64.86</v>
+      </c>
+      <c r="H14" s="1">
+        <v>65.38</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1661</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14">
         <v>67.53</v>
       </c>
-      <c r="D14" s="1">
-        <v>67.97</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2">
-        <v>2930</v>
+      <c r="M14">
+        <v>56.68</v>
+      </c>
+      <c r="N14">
+        <v>70.61</v>
+      </c>
+      <c r="O14">
+        <v>51.91</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>2</v>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>67.040000000000006</v>
@@ -842,10 +7797,25 @@
       <c r="I15" s="1">
         <v>864</v>
       </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>67.97</v>
+      </c>
+      <c r="M15">
+        <v>55.8</v>
+      </c>
+      <c r="N15">
+        <v>68.2</v>
+      </c>
+      <c r="O15">
+        <v>52.53</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>3</v>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>67.13</v>
@@ -868,10 +7838,25 @@
       <c r="I16" s="1">
         <v>343</v>
       </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16">
+        <v>66.91</v>
+      </c>
+      <c r="M16">
+        <v>60.57</v>
+      </c>
+      <c r="N16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O16">
+        <v>53.64</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>0.6</v>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>67.19</v>
@@ -894,8 +7879,23 @@
       <c r="I17" s="1">
         <v>210</v>
       </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <v>66.8</v>
+      </c>
+      <c r="M17">
+        <v>59.57</v>
+      </c>
+      <c r="N17">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="O17">
+        <v>55.6</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -910,12 +7910,1267 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="M18">
+        <v>58.91</v>
+      </c>
+      <c r="N18">
+        <v>72.73</v>
+      </c>
+      <c r="O18">
+        <v>53.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="4">
+        <v>66.87</v>
+      </c>
+      <c r="M19">
+        <v>58.05</v>
+      </c>
+      <c r="N19">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="O19">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="4">
+        <v>64.28</v>
+      </c>
+      <c r="M20">
+        <v>63.98</v>
+      </c>
+      <c r="N20">
+        <v>74.3</v>
+      </c>
+      <c r="O20">
+        <v>52.95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>56.68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2">
+        <v>1249</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="4">
+        <v>64.42</v>
+      </c>
+      <c r="M21">
+        <v>61.78</v>
+      </c>
+      <c r="N21">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="O21">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60.57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>59.57</v>
+      </c>
+      <c r="E22" s="1">
+        <v>63.98</v>
+      </c>
+      <c r="F22" s="1">
+        <v>61.78</v>
+      </c>
+      <c r="G22" s="1">
+        <v>57.24</v>
+      </c>
+      <c r="H22" s="1">
+        <v>55.38</v>
+      </c>
+      <c r="I22" s="1">
+        <v>437</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="4">
+        <v>64.53</v>
+      </c>
+      <c r="M22">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="N22">
+        <v>73.69</v>
+      </c>
+      <c r="O22">
+        <v>55.63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <v>58.91</v>
+      </c>
+      <c r="D23" s="1">
+        <v>58.05</v>
+      </c>
+      <c r="E23" s="1">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="F23" s="1">
+        <v>72.09</v>
+      </c>
+      <c r="G23" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>61.63</v>
+      </c>
+      <c r="I23" s="1">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="4">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="M23">
+        <v>72.09</v>
+      </c>
+      <c r="N23">
+        <v>71.86</v>
+      </c>
+      <c r="O23">
+        <v>58.86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f>AVERAGE(E22:E23)</f>
+        <v>68.649999999999991</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <f>AVERAGE(G22:G23)</f>
+        <v>60.57</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="4">
+        <v>64.86</v>
+      </c>
+      <c r="M24">
+        <v>57.24</v>
+      </c>
+      <c r="N24">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="O24">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="4">
+        <v>65.38</v>
+      </c>
+      <c r="M25">
+        <v>55.38</v>
+      </c>
+      <c r="N25">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="O25">
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="4">
+        <v>63.77</v>
+      </c>
+      <c r="M26">
+        <v>63.9</v>
+      </c>
+      <c r="N26">
+        <v>69.75</v>
+      </c>
+      <c r="O26">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>70.61</v>
+      </c>
+      <c r="D27" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2">
+        <v>2157</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="4">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="M27">
+        <v>61.63</v>
+      </c>
+      <c r="N27">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="O27">
+        <v>50.63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D28" s="1">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="E28" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="H28" s="1">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1668</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="D29" s="1">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>73.69</v>
+      </c>
+      <c r="F29" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="G29" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="H29" s="1">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="I29" s="1">
+        <v>622</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f>AVERAGE(E28:E28)</f>
+        <v>74.3</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <f>AVERAGE(G28:G28)</f>
+        <v>70.680000000000007</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>51.91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>52.53</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="2">
+        <v>750</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>53.64</v>
+      </c>
+      <c r="D35" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>52.95</v>
+      </c>
+      <c r="F35" s="1">
+        <v>55.18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50.86</v>
+      </c>
+      <c r="H35" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="I35" s="1">
+        <v>590</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>53.64</v>
+      </c>
+      <c r="D36" s="1">
+        <v>54.93</v>
+      </c>
+      <c r="E36" s="1">
+        <v>55.63</v>
+      </c>
+      <c r="F36" s="1">
+        <v>58.86</v>
+      </c>
+      <c r="G36" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50.63</v>
+      </c>
+      <c r="I36" s="1">
+        <v>158</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <f>AVERAGE(E35:E35)</f>
+        <v>52.95</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <f>AVERAGE(G35:G35)</f>
+        <v>50.86</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E2B147-FAF4-4E02-A4DA-7ED94B1D9E20}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2907</v>
+      </c>
+      <c r="C2" s="1">
+        <v>590.14099999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>259.88</v>
+      </c>
+      <c r="E2" s="1">
+        <v>67537.740000000005</v>
+      </c>
+      <c r="F2" s="1">
+        <v>198</v>
+      </c>
+      <c r="G2" s="1">
+        <v>373</v>
+      </c>
+      <c r="H2" s="1">
+        <v>537</v>
+      </c>
+      <c r="I2" s="1">
+        <v>777</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1273</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1075</v>
+      </c>
+      <c r="L2" s="1">
+        <v>67.53</v>
+      </c>
+      <c r="M2" s="1">
+        <v>66.91</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1">
+        <v>750</v>
+      </c>
+      <c r="C3" s="1">
+        <v>158.23599999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>78.48</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6159.86</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>93.25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>149</v>
+      </c>
+      <c r="I3" s="1">
+        <v>230.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>387</v>
+      </c>
+      <c r="K3" s="1">
+        <v>376</v>
+      </c>
+      <c r="L3" s="1">
+        <v>51.91</v>
+      </c>
+      <c r="M3" s="1">
+        <v>53.64</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2157</v>
+      </c>
+      <c r="C4" s="1">
+        <v>179.31399999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>67.12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4504.91</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>179</v>
+      </c>
+      <c r="I4" s="1">
+        <v>242</v>
+      </c>
+      <c r="J4" s="1">
+        <v>313</v>
+      </c>
+      <c r="K4" s="1">
+        <v>272</v>
+      </c>
+      <c r="L4" s="1">
+        <v>70.61</v>
+      </c>
+      <c r="M4" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1249</v>
+      </c>
+      <c r="C5" s="1">
+        <v>109.327</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24.52</v>
+      </c>
+      <c r="E5" s="1">
+        <v>601.09</v>
+      </c>
+      <c r="F5" s="1">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1">
+        <v>117</v>
+      </c>
+      <c r="I5" s="1">
+        <v>130</v>
+      </c>
+      <c r="J5" s="1">
+        <v>142</v>
+      </c>
+      <c r="K5" s="1">
+        <v>108</v>
+      </c>
+      <c r="L5" s="1">
+        <v>56.68</v>
+      </c>
+      <c r="M5" s="1">
+        <v>60.57</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5196843-21AC-4610-B818-371450906E6B}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>0.69</v>
+      </c>
+      <c r="D2">
+        <v>0.74</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2">
+        <v>55.4</v>
+      </c>
+      <c r="Q2">
+        <v>63.25</v>
+      </c>
+      <c r="R2">
+        <v>68.86</v>
+      </c>
+      <c r="S2">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
+      <c r="D3">
+        <v>0.77</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.69</v>
+      </c>
+      <c r="D4">
+        <v>0.74</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>0.61</v>
+      </c>
+      <c r="C5">
+        <v>0.69</v>
+      </c>
+      <c r="D5">
+        <v>0.74</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5">
+        <v>56.51</v>
+      </c>
+      <c r="Q5">
+        <v>63.27</v>
+      </c>
+      <c r="R5">
+        <v>69.19</v>
+      </c>
+      <c r="S5">
+        <v>69.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEF7112-8207-4EC3-A287-3D8AAAC3667D}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8">
+        <v>438</v>
+      </c>
+      <c r="E12" s="8">
+        <v>66</v>
+      </c>
+      <c r="F12" s="8">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8">
+        <v>811</v>
+      </c>
+      <c r="E13" s="8">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="8">
+        <v>438</v>
+      </c>
+      <c r="E14" s="8">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8">
+        <v>811</v>
+      </c>
+      <c r="E15" s="8">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="8">
+        <v>438</v>
+      </c>
+      <c r="E16" s="8">
+        <v>52</v>
+      </c>
+      <c r="F16" s="8">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8">
+        <v>811</v>
+      </c>
+      <c r="E17" s="8">
+        <v>52</v>
+      </c>
+      <c r="F17" s="8">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alireza\تز ارشد\فایل‌های پایان‌نامه\پیاده سازی\stance detection using wikipedia augmented data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9593FB3-63C3-4690-863A-F63D0819B099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB38C6-FF3D-4FD1-86EB-973F923D3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>F1</t>
   </si>
@@ -195,33 +195,9 @@
     <t>F1 وزنی مقادیر غنی شده در روش KASrA++</t>
   </si>
   <si>
-    <t>F1 وزنی</t>
-  </si>
-  <si>
-    <t>فراخوانی</t>
-  </si>
-  <si>
-    <t>صحت</t>
-  </si>
-  <si>
     <t>دقت</t>
   </si>
   <si>
-    <t>gemini-2.0-flash</t>
-  </si>
-  <si>
-    <t>llama-3.3-70b</t>
-  </si>
-  <si>
-    <t>deepSeek-V3-0324</t>
-  </si>
-  <si>
-    <t>gpt-4o-mini</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
     <t>گروه نمونه‌ها</t>
   </si>
   <si>
@@ -295,30 +271,97 @@
   </si>
   <si>
     <t>1.9 به 1</t>
+  </si>
+  <si>
+    <t>امتیاز F وزنی</t>
+  </si>
+  <si>
+    <t>KASnE</t>
+  </si>
+  <si>
+    <t>KASrA (llama)</t>
+  </si>
+  <si>
+    <t>LLaMA-3-3.70B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeepSeek-V3 </t>
+  </si>
+  <si>
+    <t>Gemini-2.0-Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPT-4o-mini </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Weighted F1</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>LLaMA-3-3.70B (Model)</t>
+  </si>
+  <si>
+    <t>LLaMA-3-3.70B (Baseline)</t>
+  </si>
+  <si>
+    <t>DeepSeek-V3 (Model)</t>
+  </si>
+  <si>
+    <t>DeepSeek-V3 (Baseline)</t>
+  </si>
+  <si>
+    <t>Gemini-2.0-Flash (Model)</t>
+  </si>
+  <si>
+    <t>Gemini-2.0-Flash (Baseline)</t>
+  </si>
+  <si>
+    <t>GPT-4o-mini (Model)</t>
+  </si>
+  <si>
+    <t>GPT-4o-mini (Baseline)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -334,13 +377,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -411,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,25 +504,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2095,1230 +2181,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>دقت</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CE1-44C2-8AC6-40526993FB04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>صحت</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CE1-44C2-8AC6-40526993FB04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>فراخوانی</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CE1-44C2-8AC6-40526993FB04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1 وزنی</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4CE1-44C2-8AC6-40526993FB04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="1958254144"/>
-        <c:axId val="1958250784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1958254144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1958250784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1958250784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1958254144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>دقت</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$P$1:$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$2:$S$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>55.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48A9-40BC-983E-0D4C3585524B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1 وزنی</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$P$1:$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>deepSeek-V3-0324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>llama-3.3-70b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>56.51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-48A9-40BC-983E-0D4C3585524B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="1596681151"/>
-        <c:axId val="1596678271"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1596681151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1596678271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1596678271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1596681151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3479,86 +2341,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5619,1054 +4401,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6890,85 +4624,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF1DA23-41C0-4304-AF42-D1909F6C83B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1164739F-001D-1A11-6E04-703C3EAEDADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8746,161 +6401,272 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5196843-21AC-4610-B818-371450906E6B}">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238856F6-1061-44CA-94F9-488CD188E08E}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>0.6</v>
-      </c>
-      <c r="C2">
-        <v>0.69</v>
-      </c>
-      <c r="D2">
-        <v>0.74</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2">
-        <v>55.4</v>
-      </c>
-      <c r="Q2">
-        <v>63.25</v>
-      </c>
-      <c r="R2">
-        <v>68.86</v>
-      </c>
-      <c r="S2">
-        <v>68.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>0.65</v>
-      </c>
-      <c r="C3">
-        <v>0.71</v>
-      </c>
-      <c r="D3">
-        <v>0.77</v>
-      </c>
-      <c r="E3">
-        <v>0.71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4">
-        <v>0.6</v>
-      </c>
-      <c r="C4">
-        <v>0.69</v>
-      </c>
-      <c r="D4">
-        <v>0.74</v>
-      </c>
-      <c r="E4">
-        <v>0.7</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="B5">
-        <v>0.61</v>
-      </c>
-      <c r="C5">
-        <v>0.69</v>
-      </c>
-      <c r="D5">
-        <v>0.74</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5">
-        <v>56.51</v>
-      </c>
-      <c r="Q5">
-        <v>63.27</v>
-      </c>
-      <c r="R5">
-        <v>69.19</v>
-      </c>
-      <c r="S5">
-        <v>69.41</v>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.76049999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.63270000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.74209999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.73480000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.63270000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.70169999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.69410000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.61029999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.56499999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8908,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEF7112-8207-4EC3-A287-3D8AAAC3667D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8921,248 +6687,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5">
+        <v>74</v>
+      </c>
+      <c r="D5" s="5">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7">
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6">
+        <v>438</v>
+      </c>
+      <c r="E12" s="6">
         <v>66</v>
       </c>
-      <c r="D2" s="7">
+      <c r="F12" s="6">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6">
+        <v>811</v>
+      </c>
+      <c r="E13" s="6">
         <v>68</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F13" s="6">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="G13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="6">
+        <v>438</v>
+      </c>
+      <c r="E14" s="6">
         <v>48</v>
       </c>
-      <c r="D4" s="7">
+      <c r="F14" s="6">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="G14" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6">
+        <v>811</v>
+      </c>
+      <c r="E15" s="6">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="7">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7">
-        <v>50</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="D16" s="6">
+        <v>438</v>
+      </c>
+      <c r="E16" s="6">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="7">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D17" s="6">
+        <v>811</v>
+      </c>
+      <c r="E17" s="6">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="8">
-        <v>438</v>
-      </c>
-      <c r="E12" s="8">
-        <v>66</v>
-      </c>
-      <c r="F12" s="8">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="8">
-        <v>811</v>
-      </c>
-      <c r="E13" s="8">
-        <v>68</v>
-      </c>
-      <c r="F13" s="8">
-        <v>40</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="8">
-        <v>438</v>
-      </c>
-      <c r="E14" s="8">
-        <v>48</v>
-      </c>
-      <c r="F14" s="8">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="8">
-        <v>811</v>
-      </c>
-      <c r="E15" s="8">
-        <v>57</v>
-      </c>
-      <c r="F15" s="8">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="8">
-        <v>438</v>
-      </c>
-      <c r="E16" s="8">
-        <v>52</v>
-      </c>
-      <c r="F16" s="8">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="8">
-        <v>811</v>
-      </c>
-      <c r="E17" s="8">
-        <v>52</v>
-      </c>
-      <c r="F17" s="8">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
